--- a/NãoImportante/ToDoList.xlsx
+++ b/NãoImportante/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEA11A-A223-4A17-85F1-860C1421E195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDF321-9F67-42B2-866E-EBF78B53E71F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>EXAME AED</t>
   </si>
@@ -139,15 +139,9 @@
     <t>LABI-Extra</t>
   </si>
   <si>
-    <t>Dia Atual</t>
-  </si>
-  <si>
     <t>ISD-A9</t>
   </si>
   <si>
-    <t>ISD-A10</t>
-  </si>
-  <si>
     <t>ISD-A11A12</t>
   </si>
   <si>
@@ -155,6 +149,18 @@
   </si>
   <si>
     <t>LABI EXAME?</t>
+  </si>
+  <si>
+    <t>MCE-PP</t>
+  </si>
+  <si>
+    <t>MCE-16h Apresentação</t>
+  </si>
+  <si>
+    <t>Dias passados</t>
+  </si>
+  <si>
+    <t>ISD-A09A10</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +253,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -361,11 +373,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +489,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,7 +783,7 @@
   <dimension ref="B1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +792,7 @@
     <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="39.140625" style="1" bestFit="1" customWidth="1"/>
@@ -782,7 +816,7 @@
       <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -826,7 +860,7 @@
       <c r="C3" s="32">
         <v>20</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="34">
         <v>21</v>
       </c>
       <c r="E3" s="3">
@@ -871,22 +905,22 @@
         <v>16</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="I4" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>5</v>
@@ -915,13 +949,17 @@
       <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="20" t="s">
         <v>18</v>
       </c>
@@ -993,7 +1031,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
@@ -1282,7 +1320,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
       <c r="P20" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1471,34 +1509,36 @@
       <c r="N31" s="12"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="19" t="s">
         <v>10</v>
       </c>

--- a/NãoImportante/ToDoList.xlsx
+++ b/NãoImportante/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDF321-9F67-42B2-866E-EBF78B53E71F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BCF601-0671-45A4-ABFD-75B92F9DE702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -390,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,6 +511,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,7 +808,7 @@
   <dimension ref="B1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,10 +844,10 @@
       <c r="D2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -863,10 +888,10 @@
       <c r="D3" s="34">
         <v>21</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="32">
         <v>22</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="34">
         <v>23</v>
       </c>
       <c r="G3" s="3">
@@ -898,19 +923,19 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="39" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="23" t="s">
@@ -942,11 +967,11 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -1114,7 +1139,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
